--- a/03_BOM/PHOTODIODE_BOM_V1.2.0.xlsx
+++ b/03_BOM/PHOTODIODE_BOM_V1.2.0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\Altium\NANORACK\PHOTODIODE V1.2.0\03_BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683C4C0E-71A0-4746-B26A-A66DCF9EC1DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1029301-2868-45AE-BD99-09927C8E539B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-60" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PHOTODIODE_BOM" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>SS54</t>
   </si>
@@ -451,6 +451,18 @@
   </si>
   <si>
     <t>0510210900</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>STOCK</t>
+  </si>
+  <si>
+    <t>NOTE</t>
+  </si>
+  <si>
+    <t>STATUS</t>
   </si>
 </sst>
 </file>
@@ -475,29 +487,33 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -507,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -532,8 +548,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -582,45 +604,77 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -840,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -878,35 +932,42 @@
       <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12"/>
+      <c r="H1" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="22">
         <v>4</v>
       </c>
-      <c r="H2" s="15"/>
-      <c r="I2" s="10"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="31" t="s">
+        <v>142</v>
+      </c>
       <c r="J2" s="6"/>
     </row>
     <row r="3" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -916,7 +977,7 @@
       <c r="B3" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="10" t="s">
         <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -928,11 +989,13 @@
       <c r="F3" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="23">
         <v>4</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
@@ -941,7 +1004,7 @@
       <c r="B4" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>79</v>
       </c>
       <c r="D4" s="8" t="s">
@@ -953,11 +1016,13 @@
       <c r="F4" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="23">
         <v>3</v>
       </c>
       <c r="H4" s="14"/>
-      <c r="I4" s="10"/>
+      <c r="I4" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -966,7 +1031,7 @@
       <c r="B5" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="10" t="s">
         <v>114</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -978,11 +1043,13 @@
       <c r="F5" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="8">
+      <c r="G5" s="23">
         <v>28</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="30" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
@@ -1003,11 +1070,13 @@
       <c r="F6" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="24">
         <v>1</v>
       </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="10"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
@@ -1028,11 +1097,13 @@
       <c r="F7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G7" s="24">
         <v>1</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
@@ -1053,11 +1124,13 @@
       <c r="F8" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="23">
         <v>1</v>
       </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="10"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5" t="s">
@@ -1066,7 +1139,7 @@
       <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>91</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -1078,11 +1151,13 @@
       <c r="F9" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G9" s="5">
+      <c r="G9" s="24">
         <v>48</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="10"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="5" t="s">
@@ -1103,11 +1178,13 @@
       <c r="F10" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="24">
         <v>1</v>
       </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="10"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
@@ -1128,11 +1205,13 @@
       <c r="F11" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="23">
         <v>1</v>
       </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="10"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
@@ -1141,7 +1220,7 @@
       <c r="B12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="10" t="s">
         <v>129</v>
       </c>
       <c r="D12" s="5" t="s">
@@ -1153,11 +1232,13 @@
       <c r="F12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="24">
         <v>14</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="10"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
@@ -1166,7 +1247,7 @@
       <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="10" t="s">
         <v>133</v>
       </c>
       <c r="D13" s="5" t="s">
@@ -1178,11 +1259,13 @@
       <c r="F13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="24">
         <v>6</v>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="10"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
@@ -1203,11 +1286,13 @@
       <c r="F14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="5">
+      <c r="G14" s="24">
         <v>2</v>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="10"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="5" t="s">
@@ -1216,7 +1301,7 @@
       <c r="B15" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="19" t="s">
         <v>131</v>
       </c>
       <c r="D15" s="5" t="s">
@@ -1228,11 +1313,13 @@
       <c r="F15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="24">
         <v>1</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="10"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1241,7 +1328,7 @@
       <c r="B16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="10" t="s">
         <v>118</v>
       </c>
       <c r="D16" s="5" t="s">
@@ -1253,36 +1340,40 @@
       <c r="F16" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="5">
+      <c r="G16" s="24">
         <v>1</v>
       </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="10"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="17" t="s">
+      <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="17" t="s">
+      <c r="E17" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="17" t="s">
+      <c r="F17" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="22">
         <v>4</v>
       </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="10"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -1303,11 +1394,13 @@
       <c r="F18" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-      <c r="H18" s="15"/>
-      <c r="I18" s="10"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="19" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
@@ -1316,7 +1409,7 @@
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="19" t="s">
         <v>130</v>
       </c>
       <c r="D19" s="5" t="s">
@@ -1328,180 +1421,202 @@
       <c r="F19" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="24">
         <v>1</v>
       </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="10"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="20" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="26">
         <v>1</v>
       </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="10"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="21" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="17" t="s">
+      <c r="A21" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="D21" s="17" t="s">
+      <c r="D21" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E21" s="17" t="s">
+      <c r="E21" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G21" s="22">
         <v>2</v>
       </c>
-      <c r="H21" s="15"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="22" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="26">
         <v>1</v>
       </c>
-      <c r="H22" s="15"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="23" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="16" t="s">
         <v>132</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G23" s="20">
+      <c r="G23" s="27">
         <v>1</v>
       </c>
-      <c r="H23" s="15"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="24" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="27">
         <v>6</v>
       </c>
-      <c r="H24" s="15"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="25" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="17" t="s">
+      <c r="D25" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E25" s="17" t="s">
+      <c r="E25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G25" s="22">
         <v>1</v>
       </c>
-      <c r="H25" s="15"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="26" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E26" s="21" t="s">
+      <c r="E26" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="24" t="s">
+      <c r="F26" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="26">
         <v>1</v>
       </c>
-      <c r="H26" s="15"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="27" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
@@ -1520,10 +1635,13 @@
       <c r="F27" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="23">
         <v>1</v>
       </c>
-      <c r="H27" s="15"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -1540,59 +1658,65 @@
       <c r="F28" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="23">
         <v>1</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="I28" s="15"/>
+      <c r="I28" s="28" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="29" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21" t="s">
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F29" s="24" t="s">
+      <c r="F29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="26">
         <v>1</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="H29" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I29" s="27"/>
+      <c r="I29" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21" t="s">
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F30" s="24" t="s">
+      <c r="F30" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="26">
         <v>9</v>
       </c>
-      <c r="H30" s="2" t="s">
+      <c r="H30" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="I30" s="27"/>
+      <c r="I30" s="31" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="31" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
